--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -493,150 +493,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=1,
+                 BaggingClassifier(estimator=LogisticRegression(C=3,
+                                                                max_iter=1000,
+                                                                penalty='l1',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5000000000000001</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6727591036414566</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.02986056186189792</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5721288515406163</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.06250057329580458</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
                                                                 max_iter=1000,
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.7663054187192117</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.588235294117647</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0 1 0 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7089152074422577</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.03475474951958033</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6333568251829403</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06843905157476689</v>
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 0 1 1 0 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6762557077625573</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03192653273908408</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5598173515981734</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05330226439443557</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.001,
                                                                 max_iter=1000,
                                                                 random_state=42,
-                                                                solver='saga'),
+                                                                solver='liblinear'),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7422459893048128</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 0 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6675914915717794</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0443260563745226</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5750763603022917</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08543647638334503</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B4" t="n">
-        <v>0.7422459893048128</v>
+        <v>0.6095238095238095</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[1 0 0 0 1 0 1 0 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 0 1 1 1 1 1 0 1 1 0 1]</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>42</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6389833460592862</v>
+        <v>0.6504960317460317</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03431432442613333</v>
+        <v>0.0290924160569398</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5329360962897118</v>
+        <v>0.5370370370370369</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07624242847770178</v>
+        <v>0.07299681919941778</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,53 +497,156 @@
                 ('selector',
                  SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=3,
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
                                                                 max_iter=1000,
-                                                                penalty='l1',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=5, random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6476190476190476</v>
+        <v>0.6952380952380952</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5000000000000001</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 0 0 1 0 0 1 1 0 1 0 0]</t>
+          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[0 1 1 0 0 1 1 0 1 0 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6727591036414566</v>
+        <v>0.7115238095238096</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02986056186189792</v>
+        <v>0.02434195695677412</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5721288515406163</v>
+        <v>0.5925714285714286</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06250057329580458</v>
+        <v>0.04926213077368703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=3,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 1 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6624999999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.02105927289454936</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5540816326530613</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0786473555337113</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 1 1 0 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6681385281385283</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.03433622428519705</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5418181818181819</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.07881339753750574</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
@@ -551,98 +654,101 @@
                                                      random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                class_weight='balanced',
                                                                 max_iter=1000,
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 0 1 0 0 0 0 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 0 1 1 0 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6762557077625573</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03192653273908408</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5598173515981734</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05330226439443557</v>
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6497795414462082</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03880250498747913</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5047619047619049</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.07708539671173281</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                 BaggingClassifier(estimator=LogisticRegression(C=1,
                                                                 max_iter=1000,
+                                                                penalty='l1',
                                                                 random_state=42,
-                                                                solver='liblinear'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6095238095238095</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.823529411764706</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 1 0 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6504960317460317</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0290924160569398</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5370370370370369</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07299681919941778</v>
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.6476190476190476</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 1 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.6643707482993195</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0329769197326136</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5627551020408164</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07154926691588064</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,220 +493,64 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.001,
                                                                 max_iter=1000,
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6952380952380952</v>
+        <v>0.7058823529411764</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[1 1 0 0 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 1 0 1 0 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7115238095238096</v>
+        <v>0.6712344572004175</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02434195695677412</v>
+        <v>0.05460088315051519</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5925714285714286</v>
+        <v>0.5001411994015155</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04926213077368703</v>
+        <v>0.1461811544800939</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=3,
-                                                                class_weight='balanced',
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 1 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6624999999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.02105927289454936</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5540816326530613</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.0786473555337113</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                class_weight='balanced',
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 1 1 1 0 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6681385281385283</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.03433622428519705</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5418181818181819</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.07881339753750574</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                class_weight='balanced',
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[1 1 0 0 0 0 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6497795414462082</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.03880250498747913</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5047619047619049</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.07708539671173281</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fccd062de80&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=1,
+                                                                class_weight='balanced',
                                                                 max_iter=1000,
                                                                 penalty='l1',
                                                                 random_state=42,
@@ -714,41 +558,142 @@
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.6476190476190476</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5714285714285715</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 0 0 0 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 1 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.6643707482993195</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0329769197326136</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5627551020408164</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.07154926691588064</v>
+      <c r="B3" t="n">
+        <v>0.7128954378954379</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd83390370&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 1 1 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>69</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6660861198064889</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03737245848659287</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5901191814721227</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.09070571843597758</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=3,
+                                                                max_iter=1000,
+                                                                penalty='l1',
+                                                                random_state=42,
+                                                                solver='liblinear'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7589215686274509</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 0 1 0 1 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.6639418962436329</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.06081025364163588</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6040319057918679</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1144971318066289</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcd748056d0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                max_iter=1000,
+                                                                random_state=42,
+                                                                solver='liblinear'),
+                                   random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7902357609710551</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd05be040&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6449752961592022</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.05565470903387442</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5857660640013582</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1209318089419538</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -547,7 +547,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', RobustScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fccd062de80&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91044dc400&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=1,
                                                                 class_weight='balanced',
@@ -563,7 +563,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcd83390370&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91044d0dc0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -650,7 +650,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcd748056d0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f91044dc490&gt;),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.0001,
                                                                 max_iter=1000,
@@ -664,7 +664,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fccd05be040&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c789b460&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D5" t="n">

--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,105 +451,327 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                 BaggingClassifier(estimator=LogisticRegression(C=3,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                penalty='l1',
+                                                                random_state=42,
+                                                                solver='liblinear'),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7192857142857143</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7060994495882403</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5656335124245572</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7234042553191491</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6599323555718154</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5370220326936744</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7835110163468372</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.640597014925373</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06db2e0&gt;),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                random_state=42,
+                                                                solver='liblinear'),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.672142857142857</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae064fca0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6627247242504855</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.532879590494975</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6302725300811357</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4872472527472527</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7245769230769231</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6233846153846153</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=5,
+                                                                class_weight='balanced',
                                                                 max_iter=1000,
                                                                 random_state=42,
                                                                 solver='saga'),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6712344572004175</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.05460088315051519</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5001411994015155</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1461811544800939</v>
+      <c r="B4" t="n">
+        <v>0.6849999999999999</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6420540111089821</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5085385671675994</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.693877551020408</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6228827958953731</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5015636200716846</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7391304347826086</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6964346349745331</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5625806451612904</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.6538461538461539</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', RobustScaler()),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                random_state=42,
+                                                                solver='liblinear'),
+                                   n_estimators=5, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.6271428571428571</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6496552738774132</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5217974698409482</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6109660646001875</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4787393604784909</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7236369910282954</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.6127536231884058</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91044dc400&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fcae064fa30&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=1,
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
                                                                 class_weight='balanced',
                                                                 max_iter=1000,
                                                                 penalty='l1',
@@ -558,142 +780,53 @@
                                    n_estimators=50, random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7128954378954379</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91044d0dc0&gt;, 'scaler': RobustScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 1}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 1 1 1 0 0]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6660861198064889</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.03737245848659287</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5901191814721227</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.09070571843597758</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=3,
-                                                                max_iter=1000,
-                                                                penalty='l1',
-                                                                random_state=42,
-                                                                solver='liblinear'),
-                                   n_estimators=50, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7589215686274509</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': None, 'model__estimator__C': 3}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 0 1 0 1 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6639418962436329</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.06081025364163588</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6040319057918679</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1144971318066289</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f91044dc490&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='liblinear'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7902357609710551</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f91c789b460&gt;, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6449752961592022</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.05565470903387442</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5857660640013582</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1209318089419538</v>
+      <c r="B6" t="n">
+        <v>0.8358333333333334</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0664dc0&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6803438110289403</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5584403073386124</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6511627906976744</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6446905393067954</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4944229217110573</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6086956521739131</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.7423728813559323</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6698305084745763</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -513,63 +513,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
                  SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
                                                      random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=3,
-                                                                class_weight='balanced',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
                                                                 max_iter=1000,
-                                                                penalty='l1',
                                                                 random_state=42,
-                                                                solver='liblinear'),
-                                   n_estimators=5, random_state=42))])</t>
+                                                                solver='saga'),
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7192857142857143</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 3}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7060994495882403</v>
+        <v>0.6624278684072648</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5656335124245572</v>
+        <v>0.5223401308475935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7234042553191491</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6599323555718154</v>
+        <v>0.6460950934408146</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5370220326936744</v>
+        <v>0.5082225775882492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7835110163468372</v>
+        <v>0.7075579549063196</v>
       </c>
       <c r="K2" t="n">
-        <v>0.640597014925373</v>
+        <v>0.5733830845771145</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7727272727272727</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 1 1 0 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -579,61 +577,61 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler', StandardScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae06db2e0&gt;),
+                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
+                                                     random_state=42))),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                class_weight='balanced',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
                                                                 max_iter=1000,
                                                                 random_state=42,
-                                                                solver='liblinear'),
-                                   n_estimators=5, random_state=42))])</t>
+                                                                solver='saga'),
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.672142857142857</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae064fca0&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6627247242504855</v>
+        <v>0.6254019217746302</v>
       </c>
       <c r="E3" t="n">
-        <v>0.532879590494975</v>
+        <v>0.5022650084957776</v>
       </c>
       <c r="F3" t="n">
         <v>0.8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6302725300811357</v>
+        <v>0.6163039550229986</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4872472527472527</v>
+        <v>0.5394505494505495</v>
       </c>
       <c r="I3" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7245769230769231</v>
+        <v>0.6657283142389525</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6233846153846153</v>
+        <v>0.5117948717948718</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -654,7 +652,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6849999999999999</v>
+        <v>0.712020202020202</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -662,40 +660,40 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.6420540111089821</v>
+        <v>0.660147188416685</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5085385671675994</v>
+        <v>0.552136206087819</v>
       </c>
       <c r="F4" t="n">
-        <v>0.693877551020408</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6228827958953731</v>
+        <v>0.6267286575769683</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5015636200716846</v>
+        <v>0.5216436251920124</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6964346349745331</v>
+        <v>0.7279928315412186</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5625806451612904</v>
+        <v>0.6351612903225807</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>[1 1 1 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0 1 0 1 1 1 1 1 1 1 1 0]</t>
+          <t>[1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 1 1 1]</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -705,10 +703,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa0019f340&gt;),
                 ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
-                                                                class_weight='balanced',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
                                                                 max_iter=1000,
                                                                 random_state=42,
                                                                 solver='liblinear'),
@@ -716,48 +715,48 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6271428571428571</v>
+        <v>0.7589194139194139</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa034091b80&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6496552738774132</v>
+        <v>0.6320624668867988</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5217974698409482</v>
+        <v>0.5578631191674668</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5714285714285713</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6109660646001875</v>
+        <v>0.6036136965678314</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4787393604784909</v>
+        <v>0.530773521969174</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7236369910282954</v>
+        <v>0.6931381248151435</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6127536231884058</v>
+        <v>0.6217391304347825</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5454545454545454</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 1 1 1 0 1 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -767,62 +766,58 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fcae064fa30&gt;),
+          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.001,
-                                                                class_weight='balanced',
                                                                 max_iter=1000,
-                                                                penalty='l1',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   n_estimators=50, random_state=42))])</t>
+                                   random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8358333333333334</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fcae0664dc0&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6803438110289403</v>
+        <v>0.6579253362620014</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5584403073386124</v>
+        <v>0.5471672771672772</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6511627906976744</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6446905393067954</v>
+        <v>0.6321606938060962</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4944229217110573</v>
+        <v>0.5173755716976056</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7423728813559323</v>
+        <v>0.7098761408083439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6698305084745763</v>
+        <v>0.614406779661017</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 0 0 0 1 1 1 1 1 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 1 0 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">

--- a/results/BaggingClassifier_LogisticRegression.xlsx
+++ b/results/BaggingClassifier_LogisticRegression.xlsx
@@ -513,241 +513,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                                                                class_weight='balanced',
                                                                 max_iter=1000,
+                                                                penalty='l1',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7434032634032633</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3829977072352105</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.404164701039701</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3294777013864882</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.3510714285714285</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4920212765957446</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5055555555555555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 1 1 0 1 0 0 1 1 0 0 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                penalty='l1',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6472727272727272</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2773029239360349</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2814087995337995</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2464141675658269</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2591517857142857</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.3486702127659575</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.3430555555555556</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 0 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 1 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                penalty='l1',
+                                                                random_state=42,
+                                                                solver='saga'),
+                                   n_estimators=50, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.7131529581529581</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4977875998177688</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.4757128057128057</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4077311022737478</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3846329365079365</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6696296296296297</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6708333333333334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 1 1 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
+                ('model',
+                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                                                                class_weight='balanced',
+                                                                max_iter=1000,
+                                                                penalty='l1',
                                                                 random_state=42,
                                                                 solver='saga'),
                                    random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6624278684072648</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5223401308475935</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.6460950934408146</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.5082225775882492</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7075579549063196</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5733830845771145</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.001,
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.7499999999999999</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6254019217746302</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5022650084957776</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6163039550229986</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5394505494505495</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6657283142389525</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5117948717948718</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None), ('selector', None),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=5,
-                                                                class_weight='balanced',
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='saga'),
-                                   random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.712020202020202</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 5}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.660147188416685</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.552136206087819</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6267286575769683</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5216436251920124</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7279928315412186</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.6351612903225807</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7faa0019f340&gt;),
-                ('model',
-                 BaggingClassifier(estimator=LogisticRegression(C=0.0001,
-                                                                max_iter=1000,
-                                                                random_state=42,
-                                                                solver='liblinear'),
-                                   n_estimators=5, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.7589194139194139</v>
+        <v>0.6055361305361304</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fa034091b80&gt;, 'scaler': None, 'model__n_estimators': 5, 'model__estimator__solver': 'liblinear', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.0001}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6320624668867988</v>
+        <v>0.3401762753399939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5578631191674668</v>
+        <v>0.3390214183964184</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6036136965678314</v>
+        <v>0.2972482437547527</v>
       </c>
       <c r="H5" t="n">
-        <v>0.530773521969174</v>
+        <v>0.294985119047619</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6931381248151435</v>
+        <v>0.4257653061224489</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6217391304347825</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -756,7 +755,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -766,49 +765,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()), ('selector', None),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  BaggingClassifier(estimator=LogisticRegression(C=0.001,
+                                                                class_weight='balanced',
                                                                 max_iter=1000,
+                                                                penalty='l1',
                                                                 random_state=42,
                                                                 solver='saga'),
-                                   random_state=42))])</t>
+                                   n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.6516394716394716</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': None, 'scaler': StandardScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l2', 'model__estimator__class_weight': None, 'model__estimator__C': 0.001}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'l1', 'model__estimator__class_weight': 'balanced', 'model__estimator__C': 0.001}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6579253362620014</v>
+        <v>0.3879273667728191</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5471672771672772</v>
+        <v>0.3710137778887778</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6321606938060962</v>
+        <v>0.3459149805289232</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5173755716976056</v>
+        <v>0.3234573412698413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7098761408083439</v>
+        <v>0.4689903846153846</v>
       </c>
       <c r="K6" t="n">
-        <v>0.614406779661017</v>
+        <v>0.4638888888888889</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -817,7 +818,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 0 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
